--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H2">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N2">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O2">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P2">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q2">
-        <v>0.01165743040711111</v>
+        <v>0.01265192422122222</v>
       </c>
       <c r="R2">
-        <v>0.104916873664</v>
+        <v>0.113867317991</v>
       </c>
       <c r="S2">
-        <v>0.0001300034063665045</v>
+        <v>0.001378770095298571</v>
       </c>
       <c r="T2">
-        <v>0.0001300034063665045</v>
+        <v>0.001378770095298571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H3">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.02585</v>
       </c>
       <c r="O3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q3">
-        <v>0.005433939988888889</v>
+        <v>0.002208454538888889</v>
       </c>
       <c r="R3">
-        <v>0.0489054599</v>
+        <v>0.01987609085</v>
       </c>
       <c r="S3">
-        <v>6.059917871058388E-05</v>
+        <v>0.0002406709858361958</v>
       </c>
       <c r="T3">
-        <v>6.059917871058389E-05</v>
+        <v>0.0002406709858361957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H4">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N4">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q4">
-        <v>4.24449109593689</v>
+        <v>0.2592179708945555</v>
       </c>
       <c r="R4">
-        <v>38.200419863432</v>
+        <v>2.332961738051</v>
       </c>
       <c r="S4">
-        <v>0.04733447093344795</v>
+        <v>0.02824882446212298</v>
       </c>
       <c r="T4">
-        <v>0.04733447093344795</v>
+        <v>0.02824882446212298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H5">
         <v>19.486935</v>
       </c>
       <c r="I5">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J5">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N5">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O5">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P5">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q5">
-        <v>0.12007416304</v>
+        <v>0.320648854565</v>
       </c>
       <c r="R5">
-        <v>1.08066746736</v>
+        <v>2.885839691085001</v>
       </c>
       <c r="S5">
-        <v>0.001339064413567916</v>
+        <v>0.03494338442403777</v>
       </c>
       <c r="T5">
-        <v>0.001339064413567916</v>
+        <v>0.03494338442403776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H6">
         <v>19.486935</v>
       </c>
       <c r="I6">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J6">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.02585</v>
       </c>
       <c r="O6">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P6">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q6">
         <v>0.05597080775</v>
       </c>
       <c r="R6">
-        <v>0.50373726975</v>
+        <v>0.5037372697500001</v>
       </c>
       <c r="S6">
-        <v>0.0006241852115322168</v>
+        <v>0.006099536685965902</v>
       </c>
       <c r="T6">
-        <v>0.000624185211532217</v>
+        <v>0.006099536685965901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H7">
         <v>19.486935</v>
       </c>
       <c r="I7">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J7">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N7">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O7">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P7">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q7">
-        <v>43.71921582002</v>
+        <v>6.569589257464999</v>
       </c>
       <c r="R7">
-        <v>393.47294238018</v>
+        <v>59.126303317185</v>
       </c>
       <c r="S7">
-        <v>0.4875557289887751</v>
+        <v>0.7159348292170261</v>
       </c>
       <c r="T7">
-        <v>0.4875557289887751</v>
+        <v>0.7159348292170259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H8">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I8">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J8">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N8">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O8">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P8">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q8">
-        <v>0.1131017972337778</v>
+        <v>0.08907045085977779</v>
       </c>
       <c r="R8">
-        <v>1.017916175104</v>
+        <v>0.8016340577380001</v>
       </c>
       <c r="S8">
-        <v>0.001261308744129023</v>
+        <v>0.009706640023517218</v>
       </c>
       <c r="T8">
-        <v>0.001261308744129023</v>
+        <v>0.009706640023517215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H9">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I9">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J9">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.02585</v>
       </c>
       <c r="O9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q9">
-        <v>0.05272074182222222</v>
+        <v>0.01554767781111111</v>
       </c>
       <c r="R9">
-        <v>0.4744866764</v>
+        <v>0.1399291003</v>
       </c>
       <c r="S9">
-        <v>0.0005879405481054393</v>
+        <v>0.00169434094312227</v>
       </c>
       <c r="T9">
-        <v>0.0005879405481054395</v>
+        <v>0.00169434094312227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H10">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I10">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J10">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N10">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O10">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P10">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q10">
-        <v>41.18056505835023</v>
+        <v>1.824913043646444</v>
       </c>
       <c r="R10">
-        <v>370.625085525152</v>
+        <v>16.424217392818</v>
       </c>
       <c r="S10">
-        <v>0.4592447517779937</v>
+        <v>0.1988737434009817</v>
       </c>
       <c r="T10">
-        <v>0.4592447517779937</v>
+        <v>0.1988737434009817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,40 +1101,40 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I11">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J11">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N11">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O11">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P11">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q11">
-        <v>0.0004567171306666668</v>
+        <v>0.001219628112333334</v>
       </c>
       <c r="R11">
-        <v>0.004110454176000001</v>
+        <v>0.010976653011</v>
       </c>
       <c r="S11">
-        <v>5.093299351492039E-06</v>
+        <v>0.0001329115428821466</v>
       </c>
       <c r="T11">
-        <v>5.093299351492039E-06</v>
+        <v>0.0001329115428821466</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I12">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J12">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,10 +1181,10 @@
         <v>0.02585</v>
       </c>
       <c r="O12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q12">
         <v>0.0002128919833333334</v>
@@ -1193,10 +1193,10 @@
         <v>0.00191602785</v>
       </c>
       <c r="S12">
-        <v>2.374166694966625E-06</v>
+        <v>2.320035237457705E-05</v>
       </c>
       <c r="T12">
-        <v>2.374166694966626E-06</v>
+        <v>2.320035237457705E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I13">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J13">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N13">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O13">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P13">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q13">
-        <v>0.1662915176653334</v>
+        <v>0.02498825625233333</v>
       </c>
       <c r="R13">
-        <v>1.496623658988</v>
+        <v>0.224894306271</v>
       </c>
       <c r="S13">
-        <v>0.001854479331325167</v>
+        <v>0.002723147866834635</v>
       </c>
       <c r="T13">
-        <v>0.001854479331325167</v>
+        <v>0.002723147866834634</v>
       </c>
     </row>
   </sheetData>
